--- a/Enzymes MetEngSim.xlsx
+++ b/Enzymes MetEngSim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Floodlight\ft_Regulation_Katrin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{216F5010-C35B-4DDC-ADBA-5A000592C746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E8ADE4-894C-4C05-A55C-6E1336494D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AE18A6FF-54FE-4CCD-941F-D2C46521BE8F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="418">
   <si>
     <t>0                          PFK</t>
   </si>
@@ -1385,12 +1385,21 @@
   <si>
     <t>find genes of reactions in http://bigg.ucsd.edu/universal/reactions</t>
   </si>
+  <si>
+    <t>FNR: PFL positive, AKGDH ?, CYTBD negative,NH4t ammonium transport ?, PDH ?https://pubmed.ncbi.nlm.nih.gov/7855430/</t>
+  </si>
+  <si>
+    <t>Phosphate reversible transport via symport</t>
+  </si>
+  <si>
+    <t>Acetate reversible transport via proton symport</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1470,6 +1479,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1543,7 +1564,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1585,6 +1606,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1903,7 +1929,7 @@
   <dimension ref="A1:K171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1972,6 +1998,7 @@
       <c r="H3" t="s">
         <v>272</v>
       </c>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1">
       <c r="A4" s="22" t="s">
@@ -2016,6 +2043,9 @@
       <c r="H6" t="s">
         <v>408</v>
       </c>
+      <c r="J6" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="23.25" thickBot="1">
       <c r="A7" s="22" t="s">
@@ -2057,6 +2087,9 @@
     <row r="10" spans="1:11" ht="17.25" thickBot="1">
       <c r="A10" s="19" t="s">
         <v>8</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>416</v>
       </c>
       <c r="D10" t="s">
         <v>112</v>
@@ -2199,6 +2232,9 @@
       <c r="A19" s="22" t="s">
         <v>17</v>
       </c>
+      <c r="C19" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1">
       <c r="A20" s="22" t="s">
@@ -2612,7 +2648,7 @@
       <c r="A51" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="25" t="s">
         <v>299</v>
       </c>
       <c r="H51" t="s">
@@ -2787,7 +2823,7 @@
       <c r="A66" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="24" t="s">
         <v>257</v>
       </c>
       <c r="D66" t="s">
